--- a/004.마케팅/SOP.xlsx
+++ b/004.마케팅/SOP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\github.com jooladen\study_source\004.마케팅\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183F1D3-2029-4532-89BE-EBA32C080238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0398C5A-3F7C-4310-81A1-7BE69CD6F10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{40DED569-BB2A-4ED4-ABBC-0562CA14220B}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="7770" windowWidth="28830" windowHeight="7830" firstSheet="12" activeTab="12" xr2:uid="{40DED569-BB2A-4ED4-ABBC-0562CA14220B}"/>
   </bookViews>
   <sheets>
     <sheet name="YOUTUBE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>https://oskkyo.tistory.com/entry/%EC%9C%A0%ED%8A%9C%EB%B8%8C-%EA%B2%80%EC%83%89-%EB%85%B8%EC%B6%9C%EC%9D%98-%ED%95%B5%EC%8B%AC-%ED%83%9C%EA%B7%B8%EC%99%80-%ED%95%B4%EC%8B%9C%ED%83%9C%EA%B7%B8%EC%9D%98-%EC%B0%A8%EC%9D%B4%EC%A0%90</t>
   </si>
@@ -203,6 +202,18 @@
   </si>
   <si>
     <t>4.최 좌측 메뉴 '요소'선택후…'모션배경'으로 검색.그리고 바로아래 '동영상'클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubebuddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롬 확장 프로그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서치볼륨…오른쪽으로 갈수록 많이 검색된다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5537,7 +5548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AD06D1-57BE-4417-9851-197533ACF12C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5597,7 +5608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D187CD1-7A57-4BCC-B70F-3246B5737886}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -5695,30 +5706,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23838F30-BACA-4652-9873-F5F1F26CACAD}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5726,7 +5737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -5734,19 +5745,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
